--- a/Spendings.xlsx
+++ b/Spendings.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>Medicine</t>
+  </si>
+  <si>
+    <t>Remaining Jan 1</t>
+  </si>
+  <si>
+    <t>Remaining Jan 2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>stationery</t>
+  </si>
+  <si>
+    <t>loan</t>
   </si>
 </sst>
 </file>
@@ -513,16 +528,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -713,11 +728,14 @@
       <c r="A9" s="4">
         <v>43467</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <v>28835.040000000001</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11707</v>
+      </c>
+      <c r="D9" s="6">
+        <f>SUM(C9:C14)</f>
         <v>11707</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -741,9 +759,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <v>9000</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="12" t="s">
         <v>19</v>
@@ -758,9 +774,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>2045</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="12" t="s">
         <v>11</v>
@@ -775,9 +789,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5">
-        <v>334</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -819,6 +831,140 @@
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>43468</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6">
+        <v>11437</v>
+      </c>
+      <c r="D16" s="6">
+        <f>SUM(C16:C21)</f>
+        <v>31437</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="12">
+        <v>42</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(F16:F21)</f>
+        <v>142</v>
+      </c>
+      <c r="H16" s="6">
+        <f>(D16-G16)</f>
+        <v>31295</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="12">
+        <v>65</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="12">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Spendings.xlsx
+++ b/Spendings.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -103,13 +103,16 @@
     <t>Remaining Jan 2</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>stationery</t>
   </si>
   <si>
     <t>loan</t>
+  </si>
+  <si>
+    <t>Laptop Emi</t>
+  </si>
+  <si>
+    <t>rent</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,18 +885,20 @@
       </c>
       <c r="G16" s="6">
         <f>SUM(F16:F21)</f>
-        <v>142</v>
+        <v>13016</v>
       </c>
       <c r="H16" s="6">
         <f>(D16-G16)</f>
-        <v>31295</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>18421</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1856</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
         <v>20000</v>
@@ -915,10 +920,10 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="F18" s="12">
+        <v>10000</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -933,7 +938,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="12">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -945,7 +950,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="12">
         <v>25</v>
@@ -959,8 +964,12 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2830</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
